--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject32.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject32.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -134,7 +134,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="0">
-        <v>1</v>
+        <v>0.84828481282431789</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -194,7 +194,7 @@
         <v>0</v>
       </c>
       <c r="W1" s="0">
-        <v>0</v>
+        <v>0.94522086499468427</v>
       </c>
       <c r="X1" s="0">
         <v>0</v>
@@ -299,7 +299,7 @@
         <v>0</v>
       </c>
       <c r="BF1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG1" s="0">
         <v>0</v>
@@ -326,10 +326,10 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>1</v>
+        <v>0.95558041402866434</v>
       </c>
       <c r="BP1" s="0">
-        <v>0</v>
+        <v>0.70650295266369656</v>
       </c>
     </row>
     <row r="2">
@@ -340,10 +340,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>1</v>
+        <v>0.93754551010813525</v>
       </c>
       <c r="D2" s="0">
-        <v>1</v>
+        <v>0.55157172038143387</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -535,24 +535,24 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>1</v>
+        <v>0.95586246769296102</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>1</v>
+        <v>0.80403845868598789</v>
       </c>
       <c r="B3" s="0">
-        <v>1</v>
+        <v>0.69493472131696743</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>1</v>
+        <v>0.9178394100096765</v>
       </c>
       <c r="E3" s="0">
-        <v>1</v>
+        <v>0.70287659127588897</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" s="0">
         <v>0</v>
@@ -621,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="AB3" s="0">
-        <v>0</v>
+        <v>0.70264125520141796</v>
       </c>
       <c r="AC3" s="0">
         <v>0</v>
@@ -651,7 +651,7 @@
         <v>0</v>
       </c>
       <c r="AL3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM3" s="0">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>1</v>
+        <v>0.99216806615691489</v>
       </c>
       <c r="C4" s="0">
-        <v>1</v>
+        <v>0.73126436317037058</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>1</v>
+        <v>0.73562373424358563</v>
       </c>
       <c r="F4" s="0">
-        <v>0</v>
+        <v>0.97818388928284428</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="AG4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH4" s="0">
         <v>0</v>
@@ -866,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="AO4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP4" s="0">
         <v>0</v>
@@ -958,16 +958,16 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>1</v>
+        <v>0.67740208994858575</v>
       </c>
       <c r="D5" s="0">
-        <v>1</v>
+        <v>0.9522930783198239</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>1</v>
+        <v>0.64170888569924101</v>
       </c>
       <c r="G5" s="0">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="U5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" s="0">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="Y5" s="0">
-        <v>0</v>
+        <v>0.95442261785471605</v>
       </c>
       <c r="Z5" s="0">
         <v>0</v>
@@ -1045,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="AF5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG5" s="0">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="AQ5" s="0">
-        <v>0</v>
+        <v>0.9768276958304839</v>
       </c>
       <c r="AR5" s="0">
         <v>0</v>
@@ -1167,19 +1167,19 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>0</v>
+        <v>0.6381118202698346</v>
       </c>
       <c r="E6" s="0">
-        <v>1</v>
+        <v>0.51232320491049321</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>0</v>
+        <v>0.71038930686333635</v>
       </c>
       <c r="H6" s="0">
-        <v>1</v>
+        <v>0.56057457044831538</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1191,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="0">
-        <v>0</v>
+        <v>0.61569290467361659</v>
       </c>
       <c r="M6" s="0">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="0">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="V6" s="0">
-        <v>0</v>
+        <v>0.65719078377543216</v>
       </c>
       <c r="W6" s="0">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="AS6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="0">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="AY6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ6" s="0">
         <v>0</v>
@@ -1379,16 +1379,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="0">
-        <v>0</v>
+        <v>0.5317629218184492</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>1</v>
+        <v>0.52375727985105525</v>
       </c>
       <c r="I7" s="0">
-        <v>1</v>
+        <v>0.80594965363426174</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S7" s="0">
-        <v>0</v>
+        <v>0.6250467347767823</v>
       </c>
       <c r="T7" s="0">
         <v>0</v>
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>1</v>
+        <v>0.6766203607773601</v>
       </c>
       <c r="G8" s="0">
-        <v>1</v>
+        <v>0.81946466074977531</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>0</v>
+        <v>0.71901235109475148</v>
       </c>
       <c r="J8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1693,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="AP8" s="0">
-        <v>0</v>
+        <v>0.97190879989570234</v>
       </c>
       <c r="AQ8" s="0">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="BO8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP8" s="0">
         <v>0</v>
@@ -1794,19 +1794,19 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>1</v>
+        <v>0.86443892114094822</v>
       </c>
       <c r="H9" s="0">
-        <v>0</v>
+        <v>0.55577164060480511</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>1</v>
+        <v>0.89438743777262886</v>
       </c>
       <c r="K9" s="0">
-        <v>1</v>
+        <v>0.83263079616127578</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1914,7 +1914,7 @@
         <v>0</v>
       </c>
       <c r="AU9" s="0">
-        <v>0</v>
+        <v>0.76718508461369272</v>
       </c>
       <c r="AV9" s="0">
         <v>0</v>
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="BJ9" s="0">
-        <v>0</v>
+        <v>0.77513757518300763</v>
       </c>
       <c r="BK9" s="0">
         <v>0</v>
@@ -2003,19 +2003,19 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="0">
-        <v>1</v>
+        <v>0.96557468939225699</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>1</v>
+        <v>0.56598750960852962</v>
       </c>
       <c r="L10" s="0">
-        <v>1</v>
+        <v>0.80697187391600766</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="AE10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF10" s="0">
         <v>0</v>
@@ -2212,19 +2212,19 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>1</v>
+        <v>0.51948787657014728</v>
       </c>
       <c r="J11" s="0">
-        <v>1</v>
+        <v>0.87042507387938794</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>1</v>
+        <v>0.86609611653811935</v>
       </c>
       <c r="M11" s="0">
-        <v>0</v>
+        <v>0.79200246376187411</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2311,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="AP11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ11" s="0">
         <v>0</v>
@@ -2409,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="0">
-        <v>0</v>
+        <v>0.78302347585209287</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
@@ -2421,19 +2421,19 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>1</v>
+        <v>0.77103056290981253</v>
       </c>
       <c r="K12" s="0">
-        <v>1</v>
+        <v>0.68677255585008279</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>1</v>
+        <v>0.9526924231815026</v>
       </c>
       <c r="N12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2472,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="AA12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB12" s="0">
         <v>0</v>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="BH12" s="0">
-        <v>1</v>
+        <v>0.963239003841451</v>
       </c>
       <c r="BI12" s="0">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="0">
         <v>0</v>
@@ -2630,10 +2630,10 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>0</v>
+        <v>0.51588944141126492</v>
       </c>
       <c r="L13" s="0">
-        <v>1</v>
+        <v>0.63807100790769111</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="0">
-        <v>1</v>
+        <v>0.78144317153125742</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2678,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="AA13" s="0">
-        <v>0</v>
+        <v>0.94548715537342942</v>
       </c>
       <c r="AB13" s="0">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="0">
         <v>0</v>
@@ -2848,10 +2848,10 @@
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" s="0">
-        <v>1</v>
+        <v>0.85747353687954586</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -2911,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="0">
-        <v>0</v>
+        <v>0.99320492841145569</v>
       </c>
       <c r="AK14" s="0">
         <v>0</v>
@@ -3048,19 +3048,19 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>1</v>
+        <v>0.55170501704221531</v>
       </c>
       <c r="N15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>1</v>
+        <v>0.59555747477194299</v>
       </c>
       <c r="Q15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="BJ15" s="0">
-        <v>0</v>
+        <v>0.97916980307927104</v>
       </c>
       <c r="BK15" s="0">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="BN15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO15" s="0">
         <v>0</v>
@@ -3233,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="0">
         <v>0</v>
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>1</v>
+        <v>0.58483367833428912</v>
       </c>
       <c r="O16" s="0">
-        <v>1</v>
+        <v>0.51010103144113517</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>0</v>
+        <v>0.66949142795065186</v>
       </c>
       <c r="R16" s="0">
-        <v>1</v>
+        <v>0.59973697542904003</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3466,10 +3466,10 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" s="0">
-        <v>0</v>
+        <v>0.89574972586429347</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="S17" s="0">
-        <v>1</v>
+        <v>0.70265666904984181</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="AE17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF17" s="0">
         <v>0</v>
@@ -3538,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="AM17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN17" s="0">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="AR17" s="0">
-        <v>0</v>
+        <v>0.5120768694195923</v>
       </c>
       <c r="AS17" s="0">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>1</v>
+        <v>0.97208133778272088</v>
       </c>
       <c r="Q18" s="0">
         <v>0</v>
@@ -3684,10 +3684,10 @@
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>1</v>
+        <v>0.57964730991961844</v>
       </c>
       <c r="T18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3735,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="AJ18" s="0">
-        <v>0</v>
+        <v>0.82963477623975868</v>
       </c>
       <c r="AK18" s="0">
         <v>0</v>
@@ -3854,7 +3854,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="0">
-        <v>0</v>
+        <v>0.93225108114264299</v>
       </c>
       <c r="H19" s="0">
         <v>0</v>
@@ -3884,16 +3884,16 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>1</v>
+        <v>0.97526907281368191</v>
       </c>
       <c r="R19" s="0">
-        <v>1</v>
+        <v>0.85919255395153571</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" s="0">
         <v>0</v>
@@ -3932,10 +3932,10 @@
         <v>0</v>
       </c>
       <c r="AG19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH19" s="0">
-        <v>0</v>
+        <v>0.88727440162987425</v>
       </c>
       <c r="AI19" s="0">
         <v>0</v>
@@ -3956,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="AO19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP19" s="0">
         <v>0</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="AY19" s="0">
-        <v>0</v>
+        <v>0.7710080505107143</v>
       </c>
       <c r="AZ19" s="0">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="BL19" s="0">
-        <v>0</v>
+        <v>0.5102833972750711</v>
       </c>
       <c r="BM19" s="0">
         <v>0</v>
       </c>
       <c r="BN19" s="0">
-        <v>0</v>
+        <v>0.6039775075823095</v>
       </c>
       <c r="BO19" s="0">
         <v>0</v>
@@ -4093,19 +4093,19 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>0</v>
+        <v>0.62025631776093926</v>
       </c>
       <c r="V20" s="0">
-        <v>1</v>
+        <v>0.90418432103836888</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4171,7 +4171,7 @@
         <v>0</v>
       </c>
       <c r="AR20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS20" s="0">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="AZ20" s="0">
-        <v>0</v>
+        <v>0.81756491493354089</v>
       </c>
       <c r="BA20" s="0">
         <v>0</v>
@@ -4260,7 +4260,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="0">
         <v>0</v>
@@ -4305,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="0">
-        <v>0</v>
+        <v>0.51183252706469262</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
@@ -4314,13 +4314,13 @@
         <v>0</v>
       </c>
       <c r="W21" s="0">
-        <v>1</v>
+        <v>0.93852669571943237</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
       </c>
       <c r="Y21" s="0">
-        <v>0</v>
+        <v>0.73819581335616391</v>
       </c>
       <c r="Z21" s="0">
         <v>0</v>
@@ -4389,7 +4389,7 @@
         <v>0</v>
       </c>
       <c r="AV21" s="0">
-        <v>0</v>
+        <v>0.6091243170956514</v>
       </c>
       <c r="AW21" s="0">
         <v>0</v>
@@ -4469,7 +4469,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="0">
-        <v>0</v>
+        <v>0.87037935590009974</v>
       </c>
       <c r="G22" s="0">
         <v>0</v>
@@ -4511,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>1</v>
+        <v>0.69848197645548682</v>
       </c>
       <c r="U22" s="0">
         <v>0</v>
@@ -4520,10 +4520,10 @@
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>0</v>
+        <v>0.96528205170496784</v>
       </c>
       <c r="X22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4568,7 +4568,7 @@
         <v>0</v>
       </c>
       <c r="AM22" s="0">
-        <v>0</v>
+        <v>0.8589793491286063</v>
       </c>
       <c r="AN22" s="0">
         <v>0</v>
@@ -4649,7 +4649,7 @@
         <v>0</v>
       </c>
       <c r="BN22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO22" s="0">
         <v>0</v>
@@ -4660,7 +4660,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0</v>
+        <v>0.84448750336814404</v>
       </c>
       <c r="B23" s="0">
         <v>0</v>
@@ -4720,25 +4720,25 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>1</v>
+        <v>0.75279871090163497</v>
       </c>
       <c r="V23" s="0">
-        <v>0</v>
+        <v>0.5625210689670409</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="0">
-        <v>1</v>
+        <v>0.83404651215735526</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
       </c>
       <c r="AA23" s="0">
-        <v>0</v>
+        <v>0.53997512330488928</v>
       </c>
       <c r="AB23" s="0">
         <v>0</v>
@@ -4810,7 +4810,7 @@
         <v>0</v>
       </c>
       <c r="AY23" s="0">
-        <v>0</v>
+        <v>0.90780414382042518</v>
       </c>
       <c r="AZ23" s="0">
         <v>0</v>
@@ -4819,7 +4819,7 @@
         <v>0</v>
       </c>
       <c r="BB23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC23" s="0">
         <v>0</v>
@@ -4828,10 +4828,10 @@
         <v>0</v>
       </c>
       <c r="BE23" s="0">
-        <v>0</v>
+        <v>0.52668978794064447</v>
       </c>
       <c r="BF23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG23" s="0">
         <v>0</v>
@@ -4929,25 +4929,25 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>1</v>
+        <v>0.65487598341563835</v>
       </c>
       <c r="Z24" s="0">
-        <v>1</v>
+        <v>0.70304077836898915</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
       </c>
       <c r="AB24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC24" s="0">
         <v>0</v>
@@ -5028,7 +5028,7 @@
         <v>0</v>
       </c>
       <c r="BC24" s="0">
-        <v>0</v>
+        <v>0.98405898444714512</v>
       </c>
       <c r="BD24" s="0">
         <v>0</v>
@@ -5084,7 +5084,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="0">
-        <v>0</v>
+        <v>0.85388852833149032</v>
       </c>
       <c r="F25" s="0">
         <v>0</v>
@@ -5132,25 +5132,25 @@
         <v>0</v>
       </c>
       <c r="U25" s="0">
-        <v>0</v>
+        <v>0.74359093767804074</v>
       </c>
       <c r="V25" s="0">
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>1</v>
+        <v>0.52652670133389901</v>
       </c>
       <c r="X25" s="0">
-        <v>1</v>
+        <v>0.7653936091973369</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>1</v>
+        <v>0.9431710201296033</v>
       </c>
       <c r="AA25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5183,7 +5183,7 @@
         <v>0</v>
       </c>
       <c r="AL25" s="0">
-        <v>0</v>
+        <v>0.59307916175424291</v>
       </c>
       <c r="AM25" s="0">
         <v>0</v>
@@ -5347,19 +5347,19 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>1</v>
+        <v>0.75014417337233763</v>
       </c>
       <c r="Y26" s="0">
-        <v>1</v>
+        <v>0.95738115582583172</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>1</v>
+        <v>0.79612384756177845</v>
       </c>
       <c r="AB26" s="0">
-        <v>0</v>
+        <v>0.80473698851466091</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5404,7 +5404,7 @@
         <v>0</v>
       </c>
       <c r="AQ26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR26" s="0">
         <v>0</v>
@@ -5470,7 +5470,7 @@
         <v>0</v>
       </c>
       <c r="BM26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="0">
         <v>0</v>
@@ -5517,10 +5517,10 @@
         <v>0</v>
       </c>
       <c r="L27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" s="0">
-        <v>0</v>
+        <v>0.83893573729664239</v>
       </c>
       <c r="N27" s="0">
         <v>0</v>
@@ -5550,25 +5550,25 @@
         <v>0</v>
       </c>
       <c r="W27" s="0">
-        <v>0</v>
+        <v>0.75824957172521268</v>
       </c>
       <c r="X27" s="0">
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z27" s="0">
-        <v>1</v>
+        <v>0.83661981092452198</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>0</v>
+        <v>0.89931910658634073</v>
       </c>
       <c r="AC27" s="0">
-        <v>1</v>
+        <v>0.84598597719926494</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5607,7 +5607,7 @@
         <v>0</v>
       </c>
       <c r="AP27" s="0">
-        <v>0</v>
+        <v>0.56368758818622267</v>
       </c>
       <c r="AQ27" s="0">
         <v>0</v>
@@ -5696,7 +5696,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="0">
-        <v>0</v>
+        <v>0.87525963095701487</v>
       </c>
       <c r="D28" s="0">
         <v>0</v>
@@ -5759,16 +5759,16 @@
         <v>0</v>
       </c>
       <c r="X28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y28" s="0">
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>0</v>
+        <v>0.94090101461972753</v>
       </c>
       <c r="AA28" s="0">
-        <v>0</v>
+        <v>0.81367160833771091</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="AD28" s="0">
-        <v>1</v>
+        <v>0.66606718399953324</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5974,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>1</v>
+        <v>0.95357887240642336</v>
       </c>
       <c r="AB29" s="0">
         <v>0</v>
@@ -5983,10 +5983,10 @@
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>1</v>
+        <v>0.95126623253291986</v>
       </c>
       <c r="AE29" s="0">
-        <v>1</v>
+        <v>0.81944591724818561</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -6183,19 +6183,19 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>1</v>
+        <v>0.78485260926738398</v>
       </c>
       <c r="AC30" s="0">
-        <v>1</v>
+        <v>0.90547050728522993</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>1</v>
+        <v>0.92269406699968826</v>
       </c>
       <c r="AF30" s="0">
-        <v>1</v>
+        <v>0.76947171025626115</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6335,7 +6335,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="0">
         <v>0</v>
@@ -6356,7 +6356,7 @@
         <v>0</v>
       </c>
       <c r="Q31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R31" s="0">
         <v>0</v>
@@ -6392,19 +6392,19 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>1</v>
+        <v>0.80778779083516228</v>
       </c>
       <c r="AD31" s="0">
-        <v>1</v>
+        <v>0.65487445687089685</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>1</v>
+        <v>0.82793241005177087</v>
       </c>
       <c r="AG31" s="0">
-        <v>0</v>
+        <v>0.61987601709704421</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6526,7 +6526,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" s="0">
         <v>0</v>
@@ -6601,19 +6601,19 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>1</v>
+        <v>0.9884422934116287</v>
       </c>
       <c r="AE32" s="0">
-        <v>1</v>
+        <v>0.93500124820146424</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>1</v>
+        <v>0.97167398918086356</v>
       </c>
       <c r="AH32" s="0">
-        <v>0</v>
+        <v>0.72979834207981176</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6679,7 +6679,7 @@
         <v>0</v>
       </c>
       <c r="BD32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE32" s="0">
         <v>0</v>
@@ -6697,7 +6697,7 @@
         <v>0</v>
       </c>
       <c r="BJ32" s="0">
-        <v>0</v>
+        <v>0.55056076010729504</v>
       </c>
       <c r="BK32" s="0">
         <v>0</v>
@@ -6729,7 +6729,7 @@
         <v>0</v>
       </c>
       <c r="D33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" s="0">
         <v>0</v>
@@ -6774,7 +6774,7 @@
         <v>0</v>
       </c>
       <c r="S33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T33" s="0">
         <v>0</v>
@@ -6810,19 +6810,19 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>0</v>
+        <v>0.59046702492795688</v>
       </c>
       <c r="AF33" s="0">
-        <v>1</v>
+        <v>0.81801517972740956</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>0</v>
+        <v>0.81286474323849967</v>
       </c>
       <c r="AI33" s="0">
-        <v>1</v>
+        <v>0.56515061384904708</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>0</v>
       </c>
       <c r="S34" s="0">
-        <v>0</v>
+        <v>0.80005402160809214</v>
       </c>
       <c r="T34" s="0">
         <v>0</v>
@@ -7019,19 +7019,19 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>0</v>
+        <v>0.99465682354594442</v>
       </c>
       <c r="AG34" s="0">
-        <v>0</v>
+        <v>0.50449207268630558</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ34" s="0">
-        <v>1</v>
+        <v>0.74271336637853036</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7228,10 +7228,10 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>1</v>
+        <v>0.85530095778624116</v>
       </c>
       <c r="AH35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="AK35" s="0">
-        <v>1</v>
+        <v>0.83963047772343069</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7249,13 +7249,13 @@
         <v>0</v>
       </c>
       <c r="AN35" s="0">
-        <v>0</v>
+        <v>0.90035743162332826</v>
       </c>
       <c r="AO35" s="0">
         <v>0</v>
       </c>
       <c r="AP35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ35" s="0">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>0</v>
       </c>
       <c r="BK35" s="0">
-        <v>0</v>
+        <v>0.75660942492567385</v>
       </c>
       <c r="BL35" s="0">
         <v>0</v>
@@ -7377,7 +7377,7 @@
         <v>0</v>
       </c>
       <c r="N36" s="0">
-        <v>0</v>
+        <v>0.62262272393858087</v>
       </c>
       <c r="O36" s="0">
         <v>0</v>
@@ -7389,7 +7389,7 @@
         <v>0</v>
       </c>
       <c r="R36" s="0">
-        <v>0</v>
+        <v>0.79147438892164168</v>
       </c>
       <c r="S36" s="0">
         <v>0</v>
@@ -7437,7 +7437,7 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>1</v>
+        <v>0.61292572242049737</v>
       </c>
       <c r="AI36" s="0">
         <v>0</v>
@@ -7446,10 +7446,10 @@
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>1</v>
+        <v>0.99399317122636166</v>
       </c>
       <c r="AL36" s="0">
-        <v>1</v>
+        <v>0.5995589438350345</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7646,19 +7646,19 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>1</v>
+        <v>0.89889086986481392</v>
       </c>
       <c r="AJ37" s="0">
-        <v>1</v>
+        <v>0.85458647329981052</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>1</v>
+        <v>0.8219890507235259</v>
       </c>
       <c r="AM37" s="0">
-        <v>1</v>
+        <v>0.57267501471716786</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7712,7 +7712,7 @@
         <v>0</v>
       </c>
       <c r="BE37" s="0">
-        <v>0</v>
+        <v>0.79930414502999136</v>
       </c>
       <c r="BF37" s="0">
         <v>0</v>
@@ -7756,7 +7756,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" s="0">
         <v>0</v>
@@ -7822,7 +7822,7 @@
         <v>0</v>
       </c>
       <c r="Y38" s="0">
-        <v>0</v>
+        <v>0.68711067589291819</v>
       </c>
       <c r="Z38" s="0">
         <v>0</v>
@@ -7855,10 +7855,10 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>1</v>
+        <v>0.8612791905957311</v>
       </c>
       <c r="AK38" s="0">
-        <v>1</v>
+        <v>0.92480742591320064</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
@@ -7867,7 +7867,7 @@
         <v>0</v>
       </c>
       <c r="AN38" s="0">
-        <v>1</v>
+        <v>0.94708048811733803</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -8004,7 +8004,7 @@
         <v>0</v>
       </c>
       <c r="Q39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R39" s="0">
         <v>0</v>
@@ -8019,7 +8019,7 @@
         <v>0</v>
       </c>
       <c r="V39" s="0">
-        <v>0</v>
+        <v>0.6552638329346121</v>
       </c>
       <c r="W39" s="0">
         <v>0</v>
@@ -8064,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>1</v>
+        <v>0.68687540061622465</v>
       </c>
       <c r="AL39" s="0">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO39" s="0">
         <v>0</v>
@@ -8112,7 +8112,7 @@
         <v>0</v>
       </c>
       <c r="BA39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB39" s="0">
         <v>0</v>
@@ -8154,7 +8154,7 @@
         <v>0</v>
       </c>
       <c r="BO39" s="0">
-        <v>0</v>
+        <v>0.55417449219088599</v>
       </c>
       <c r="BP39" s="0">
         <v>0</v>
@@ -8264,7 +8264,7 @@
         <v>0</v>
       </c>
       <c r="AI40" s="0">
-        <v>0</v>
+        <v>0.5650550359379094</v>
       </c>
       <c r="AJ40" s="0">
         <v>0</v>
@@ -8273,19 +8273,19 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>1</v>
+        <v>0.79339257377083539</v>
       </c>
       <c r="AM40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>1</v>
+        <v>0.54368436577503587</v>
       </c>
       <c r="AP40" s="0">
-        <v>1</v>
+        <v>0.75417822237520138</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8324,7 +8324,7 @@
         <v>0</v>
       </c>
       <c r="BC40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD40" s="0">
         <v>0</v>
@@ -8377,7 +8377,7 @@
         <v>0</v>
       </c>
       <c r="D41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" s="0">
         <v>0</v>
@@ -8422,7 +8422,7 @@
         <v>0</v>
       </c>
       <c r="S41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T41" s="0">
         <v>0</v>
@@ -8485,16 +8485,16 @@
         <v>0</v>
       </c>
       <c r="AN41" s="0">
-        <v>1</v>
+        <v>0.86572118188119429</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>1</v>
+        <v>0.95721351066404203</v>
       </c>
       <c r="AQ41" s="0">
-        <v>0</v>
+        <v>0.82368533078484263</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8512,7 +8512,7 @@
         <v>0</v>
       </c>
       <c r="AW41" s="0">
-        <v>0</v>
+        <v>0.96965534577586587</v>
       </c>
       <c r="AX41" s="0">
         <v>0</v>
@@ -8595,7 +8595,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="0">
-        <v>0</v>
+        <v>0.85895554592516055</v>
       </c>
       <c r="I42" s="0">
         <v>0</v>
@@ -8604,7 +8604,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" s="0">
         <v>0</v>
@@ -8652,7 +8652,7 @@
         <v>0</v>
       </c>
       <c r="AA42" s="0">
-        <v>0</v>
+        <v>0.87985265382232436</v>
       </c>
       <c r="AB42" s="0">
         <v>0</v>
@@ -8676,7 +8676,7 @@
         <v>0</v>
       </c>
       <c r="AI42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ42" s="0">
         <v>0</v>
@@ -8691,19 +8691,19 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>1</v>
+        <v>0.57518842524872482</v>
       </c>
       <c r="AO42" s="0">
-        <v>1</v>
+        <v>0.54909514170004114</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>1</v>
+        <v>0.98335886859310806</v>
       </c>
       <c r="AR42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="0">
-        <v>0</v>
+        <v>0.79988786406696089</v>
       </c>
       <c r="F43" s="0">
         <v>0</v>
@@ -8855,7 +8855,7 @@
         <v>0</v>
       </c>
       <c r="Z43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA43" s="0">
         <v>0</v>
@@ -8900,19 +8900,19 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>0</v>
+        <v>0.67981600206376469</v>
       </c>
       <c r="AP43" s="0">
-        <v>1</v>
+        <v>0.99276506799122255</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>1</v>
+        <v>0.76952669723748413</v>
       </c>
       <c r="AS43" s="0">
-        <v>0</v>
+        <v>0.95928661984226493</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -9034,7 +9034,7 @@
         <v>0</v>
       </c>
       <c r="Q44" s="0">
-        <v>0</v>
+        <v>0.64632374459462416</v>
       </c>
       <c r="R44" s="0">
         <v>0</v>
@@ -9043,7 +9043,7 @@
         <v>0</v>
       </c>
       <c r="T44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U44" s="0">
         <v>0</v>
@@ -9109,19 +9109,19 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ44" s="0">
-        <v>1</v>
+        <v>0.81271665876381283</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>1</v>
+        <v>0.94401931789353555</v>
       </c>
       <c r="AT44" s="0">
-        <v>1</v>
+        <v>0.54762204274730364</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9133,7 +9133,7 @@
         <v>0</v>
       </c>
       <c r="AX44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY44" s="0">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="BI44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ44" s="0">
         <v>0</v>
@@ -9207,7 +9207,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45" s="0">
         <v>0</v>
@@ -9318,19 +9318,19 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>0</v>
+        <v>0.85284948649798631</v>
       </c>
       <c r="AR45" s="0">
-        <v>1</v>
+        <v>0.56657139417416691</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>1</v>
+        <v>0.68683341163600031</v>
       </c>
       <c r="AU45" s="0">
-        <v>1</v>
+        <v>0.51423827988363091</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9527,25 +9527,25 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>1</v>
+        <v>0.78297793727079024</v>
       </c>
       <c r="AS46" s="0">
-        <v>1</v>
+        <v>0.5781944305217066</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>1</v>
+        <v>0.78115341841879626</v>
       </c>
       <c r="AV46" s="0">
-        <v>1</v>
+        <v>0.89866559820890957</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
       </c>
       <c r="AX46" s="0">
-        <v>0</v>
+        <v>0.93018989336171498</v>
       </c>
       <c r="AY46" s="0">
         <v>0</v>
@@ -9628,7 +9628,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="0">
-        <v>0</v>
+        <v>0.98248705987410245</v>
       </c>
       <c r="J47" s="0">
         <v>0</v>
@@ -9736,19 +9736,19 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>1</v>
+        <v>0.51568317073173431</v>
       </c>
       <c r="AT47" s="0">
-        <v>1</v>
+        <v>0.53789524463793215</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW47" s="0">
-        <v>0</v>
+        <v>0.91304738363832594</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9796,7 +9796,7 @@
         <v>0</v>
       </c>
       <c r="BM47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN47" s="0">
         <v>0</v>
@@ -9870,7 +9870,7 @@
         <v>0</v>
       </c>
       <c r="U48" s="0">
-        <v>0</v>
+        <v>0.81137796133485074</v>
       </c>
       <c r="V48" s="0">
         <v>0</v>
@@ -9945,19 +9945,19 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>1</v>
+        <v>0.66740432300243024</v>
       </c>
       <c r="AU48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX48" s="0">
-        <v>1</v>
+        <v>0.70639216356045642</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -10136,7 +10136,7 @@
         <v>0</v>
       </c>
       <c r="AO49" s="0">
-        <v>0</v>
+        <v>0.95101522944559314</v>
       </c>
       <c r="AP49" s="0">
         <v>0</v>
@@ -10154,19 +10154,19 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>0</v>
+        <v>0.78377468227659852</v>
       </c>
       <c r="AV49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>1</v>
+        <v>0.89556572943536428</v>
       </c>
       <c r="AY49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10351,31 +10351,31 @@
         <v>0</v>
       </c>
       <c r="AR50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS50" s="0">
         <v>0</v>
       </c>
       <c r="AT50" s="0">
-        <v>0</v>
+        <v>0.68822450495797449</v>
       </c>
       <c r="AU50" s="0">
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>1</v>
+        <v>0.76809041684249779</v>
       </c>
       <c r="AW50" s="0">
-        <v>1</v>
+        <v>0.99418314058246615</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ50" s="0">
-        <v>0</v>
+        <v>0.93431181744159209</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" s="0">
         <v>0</v>
@@ -10482,7 +10482,7 @@
         <v>0</v>
       </c>
       <c r="S51" s="0">
-        <v>0</v>
+        <v>0.85187171914823323</v>
       </c>
       <c r="T51" s="0">
         <v>0</v>
@@ -10494,7 +10494,7 @@
         <v>0</v>
       </c>
       <c r="W51" s="0">
-        <v>0</v>
+        <v>0.61048000949944314</v>
       </c>
       <c r="X51" s="0">
         <v>0</v>
@@ -10572,16 +10572,16 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA51" s="0">
         <v>0</v>
@@ -10691,7 +10691,7 @@
         <v>0</v>
       </c>
       <c r="T52" s="0">
-        <v>0</v>
+        <v>0.70217645027819908</v>
       </c>
       <c r="U52" s="0">
         <v>0</v>
@@ -10781,19 +10781,19 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>0</v>
+        <v>0.61121089234034753</v>
       </c>
       <c r="AY52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>1</v>
+        <v>0.61647964712285597</v>
       </c>
       <c r="BB52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
@@ -10954,7 +10954,7 @@
         <v>0</v>
       </c>
       <c r="AM53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN53" s="0">
         <v>0</v>
@@ -10993,19 +10993,19 @@
         <v>0</v>
       </c>
       <c r="AZ53" s="0">
-        <v>1</v>
+        <v>0.88159781063717912</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>1</v>
+        <v>0.54559078488069535</v>
       </c>
       <c r="BC53" s="0">
         <v>0</v>
       </c>
       <c r="BD53" s="0">
-        <v>0</v>
+        <v>0.66288082015716721</v>
       </c>
       <c r="BE53" s="0">
         <v>0</v>
@@ -11032,7 +11032,7 @@
         <v>0</v>
       </c>
       <c r="BM53" s="0">
-        <v>0</v>
+        <v>0.67019341415239975</v>
       </c>
       <c r="BN53" s="0">
         <v>0</v>
@@ -11112,7 +11112,7 @@
         <v>0</v>
       </c>
       <c r="W54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X54" s="0">
         <v>0</v>
@@ -11199,10 +11199,10 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA54" s="0">
-        <v>1</v>
+        <v>0.82972068901905227</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
@@ -11211,7 +11211,7 @@
         <v>0</v>
       </c>
       <c r="BD54" s="0">
-        <v>0</v>
+        <v>0.66387382058168831</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11223,13 +11223,13 @@
         <v>0</v>
       </c>
       <c r="BH54" s="0">
-        <v>0</v>
+        <v>0.89058337697839862</v>
       </c>
       <c r="BI54" s="0">
         <v>0</v>
       </c>
       <c r="BJ54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK54" s="0">
         <v>0</v>
@@ -11244,7 +11244,7 @@
         <v>0</v>
       </c>
       <c r="BO54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP54" s="0">
         <v>0</v>
@@ -11321,7 +11321,7 @@
         <v>0</v>
       </c>
       <c r="X55" s="0">
-        <v>0</v>
+        <v>0.57243368114346871</v>
       </c>
       <c r="Y55" s="0">
         <v>0</v>
@@ -11369,7 +11369,7 @@
         <v>0</v>
       </c>
       <c r="AN55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO55" s="0">
         <v>0</v>
@@ -11417,10 +11417,10 @@
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE55" s="0">
-        <v>0</v>
+        <v>0.91134483413096423</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11438,13 +11438,13 @@
         <v>0</v>
       </c>
       <c r="BK55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL55" s="0">
         <v>0</v>
       </c>
       <c r="BM55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN55" s="0">
         <v>0</v>
@@ -11551,7 +11551,7 @@
         <v>0</v>
       </c>
       <c r="AF56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG56" s="0">
         <v>0</v>
@@ -11614,22 +11614,22 @@
         <v>0</v>
       </c>
       <c r="BA56" s="0">
-        <v>0</v>
+        <v>0.55476212768233668</v>
       </c>
       <c r="BB56" s="0">
-        <v>0</v>
+        <v>0.89592698510498625</v>
       </c>
       <c r="BC56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>1</v>
+        <v>0.86880039755450045</v>
       </c>
       <c r="BF56" s="0">
-        <v>1</v>
+        <v>0.67340132321080004</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11659,7 +11659,7 @@
         <v>0</v>
       </c>
       <c r="BP56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -11730,7 +11730,7 @@
         <v>0</v>
       </c>
       <c r="W57" s="0">
-        <v>0</v>
+        <v>0.50237520010926484</v>
       </c>
       <c r="X57" s="0">
         <v>0</v>
@@ -11772,7 +11772,7 @@
         <v>0</v>
       </c>
       <c r="AK57" s="0">
-        <v>0</v>
+        <v>0.59585368226352087</v>
       </c>
       <c r="AL57" s="0">
         <v>0</v>
@@ -11826,22 +11826,22 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>0</v>
+        <v>0.77797140779516005</v>
       </c>
       <c r="BD57" s="0">
-        <v>1</v>
+        <v>0.60379980380686726</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH57" s="0">
-        <v>0</v>
+        <v>0.81127719591669967</v>
       </c>
       <c r="BI57" s="0">
         <v>0</v>
@@ -11870,7 +11870,7 @@
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B58" s="0">
         <v>0</v>
@@ -11936,7 +11936,7 @@
         <v>0</v>
       </c>
       <c r="W58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X58" s="0">
         <v>0</v>
@@ -12035,19 +12035,19 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>1</v>
+        <v>0.79954483735175663</v>
       </c>
       <c r="BE58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>0</v>
+        <v>0.74288961481423244</v>
       </c>
       <c r="BH58" s="0">
-        <v>1</v>
+        <v>0.55770018143812539</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
@@ -12244,19 +12244,19 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF59" s="0">
-        <v>0</v>
+        <v>0.67452941229414931</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>1</v>
+        <v>0.90405466975615745</v>
       </c>
       <c r="BI59" s="0">
-        <v>1</v>
+        <v>0.73437299140670798</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12315,7 +12315,7 @@
         <v>0</v>
       </c>
       <c r="L60" s="0">
-        <v>1</v>
+        <v>0.55535269370952134</v>
       </c>
       <c r="M60" s="0">
         <v>0</v>
@@ -12441,7 +12441,7 @@
         <v>0</v>
       </c>
       <c r="BB60" s="0">
-        <v>0</v>
+        <v>0.89513294374160113</v>
       </c>
       <c r="BC60" s="0">
         <v>0</v>
@@ -12450,13 +12450,13 @@
         <v>0</v>
       </c>
       <c r="BE60" s="0">
-        <v>0</v>
+        <v>0.89596694726789661</v>
       </c>
       <c r="BF60" s="0">
-        <v>1</v>
+        <v>0.93994268546399051</v>
       </c>
       <c r="BG60" s="0">
-        <v>1</v>
+        <v>0.58149225707438534</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
@@ -12465,7 +12465,7 @@
         <v>0</v>
       </c>
       <c r="BJ60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12617,7 +12617,7 @@
         <v>0</v>
       </c>
       <c r="AR61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS61" s="0">
         <v>0</v>
@@ -12662,7 +12662,7 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>1</v>
+        <v>0.54636698527556693</v>
       </c>
       <c r="BH61" s="0">
         <v>0</v>
@@ -12671,10 +12671,10 @@
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>0</v>
+        <v>0.91812403611741678</v>
       </c>
       <c r="BK61" s="0">
-        <v>1</v>
+        <v>0.55549843642419172</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12718,7 +12718,7 @@
         <v>0</v>
       </c>
       <c r="I62" s="0">
-        <v>0</v>
+        <v>0.89472824180426791</v>
       </c>
       <c r="J62" s="0">
         <v>0</v>
@@ -12736,7 +12736,7 @@
         <v>0</v>
       </c>
       <c r="O62" s="0">
-        <v>0</v>
+        <v>0.6883655268406943</v>
       </c>
       <c r="P62" s="0">
         <v>0</v>
@@ -12787,7 +12787,7 @@
         <v>0</v>
       </c>
       <c r="AF62" s="0">
-        <v>0</v>
+        <v>0.79709448379669945</v>
       </c>
       <c r="AG62" s="0">
         <v>0</v>
@@ -12853,7 +12853,7 @@
         <v>0</v>
       </c>
       <c r="BB62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC62" s="0">
         <v>0</v>
@@ -12871,16 +12871,16 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI62" s="0">
-        <v>0</v>
+        <v>0.96130764084984166</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL62" s="0">
         <v>0</v>
@@ -13002,7 +13002,7 @@
         <v>0</v>
       </c>
       <c r="AI63" s="0">
-        <v>0</v>
+        <v>0.74325481494743406</v>
       </c>
       <c r="AJ63" s="0">
         <v>0</v>
@@ -13062,7 +13062,7 @@
         <v>0</v>
       </c>
       <c r="BC63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD63" s="0">
         <v>0</v>
@@ -13080,19 +13080,19 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>1</v>
+        <v>0.98076874045232953</v>
       </c>
       <c r="BJ63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM63" s="0">
-        <v>0</v>
+        <v>0.61647297062226081</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13160,7 +13160,7 @@
         <v>0</v>
       </c>
       <c r="S64" s="0">
-        <v>0</v>
+        <v>0.68084193241752611</v>
       </c>
       <c r="T64" s="0">
         <v>0</v>
@@ -13292,16 +13292,16 @@
         <v>0</v>
       </c>
       <c r="BK64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>1</v>
+        <v>0.62297347382945212</v>
       </c>
       <c r="BN64" s="0">
-        <v>1</v>
+        <v>0.82733943233518925</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13387,7 +13387,7 @@
         <v>0</v>
       </c>
       <c r="Z65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA65" s="0">
         <v>0</v>
@@ -13450,7 +13450,7 @@
         <v>0</v>
       </c>
       <c r="AU65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV65" s="0">
         <v>0</v>
@@ -13468,13 +13468,13 @@
         <v>0</v>
       </c>
       <c r="BA65" s="0">
-        <v>0</v>
+        <v>0.61053418427824835</v>
       </c>
       <c r="BB65" s="0">
         <v>0</v>
       </c>
       <c r="BC65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD65" s="0">
         <v>0</v>
@@ -13498,16 +13498,16 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>0</v>
+        <v>0.65237221457811589</v>
       </c>
       <c r="BL65" s="0">
-        <v>1</v>
+        <v>0.80792664835156192</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>1</v>
+        <v>0.5165620652652323</v>
       </c>
       <c r="BO65" s="0">
         <v>0</v>
@@ -13560,7 +13560,7 @@
         <v>0</v>
       </c>
       <c r="O66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P66" s="0">
         <v>0</v>
@@ -13572,7 +13572,7 @@
         <v>0</v>
       </c>
       <c r="S66" s="0">
-        <v>0</v>
+        <v>0.9225524971424911</v>
       </c>
       <c r="T66" s="0">
         <v>0</v>
@@ -13581,7 +13581,7 @@
         <v>0</v>
       </c>
       <c r="V66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W66" s="0">
         <v>0</v>
@@ -13707,10 +13707,10 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>1</v>
+        <v>0.77754918650839677</v>
       </c>
       <c r="BM66" s="0">
-        <v>1</v>
+        <v>0.6652554128113336</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
@@ -13719,12 +13719,12 @@
         <v>0</v>
       </c>
       <c r="BP66" s="0">
-        <v>1</v>
+        <v>0.6382917452357828</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>1</v>
+        <v>0.62593328361676348</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13745,7 +13745,7 @@
         <v>0</v>
       </c>
       <c r="H67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" s="0">
         <v>0</v>
@@ -13838,7 +13838,7 @@
         <v>0</v>
       </c>
       <c r="AM67" s="0">
-        <v>0</v>
+        <v>0.6566445256938569</v>
       </c>
       <c r="AN67" s="0">
         <v>0</v>
@@ -13883,7 +13883,7 @@
         <v>0</v>
       </c>
       <c r="BB67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC67" s="0">
         <v>0</v>
@@ -13925,15 +13925,15 @@
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>1</v>
+        <v>0.91006058438711579</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>0</v>
+        <v>0.55122326985666237</v>
       </c>
       <c r="B68" s="0">
-        <v>1</v>
+        <v>0.70773116352293353</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
@@ -14095,7 +14095,7 @@
         <v>0</v>
       </c>
       <c r="BD68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE68" s="0">
         <v>0</v>
@@ -14125,10 +14125,10 @@
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>1</v>
+        <v>0.78698640388705887</v>
       </c>
       <c r="BO68" s="0">
-        <v>1</v>
+        <v>0.68826320194686397</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject32.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject32.xlsx
@@ -343,7 +343,7 @@
         <v>0.93754551010813525</v>
       </c>
       <c r="D2" s="0">
-        <v>0.55157172038143387</v>
+        <v>0.99216806615691489</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -540,10 +540,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.80403845868598789</v>
+        <v>0.84828481282431789</v>
       </c>
       <c r="B3" s="0">
-        <v>0.69493472131696743</v>
+        <v>0.93754551010813525</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
@@ -621,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="AB3" s="0">
-        <v>0.70264125520141796</v>
+        <v>0.87525963095701487</v>
       </c>
       <c r="AC3" s="0">
         <v>0</v>
@@ -752,13 +752,13 @@
         <v>0.99216806615691489</v>
       </c>
       <c r="C4" s="0">
-        <v>0.73126436317037058</v>
+        <v>0.9178394100096765</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.73562373424358563</v>
+        <v>0.9522930783198239</v>
       </c>
       <c r="F4" s="0">
         <v>0.97818388928284428</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0.67740208994858575</v>
+        <v>0.70287659127588897</v>
       </c>
       <c r="D5" s="0">
         <v>0.9522930783198239</v>
@@ -1167,10 +1167,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>0.6381118202698346</v>
+        <v>0.97818388928284428</v>
       </c>
       <c r="E6" s="0">
-        <v>0.51232320491049321</v>
+        <v>0.64170888569924101</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
@@ -1179,7 +1179,7 @@
         <v>0.71038930686333635</v>
       </c>
       <c r="H6" s="0">
-        <v>0.56057457044831538</v>
+        <v>0.6766203607773601</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1191,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="0">
-        <v>0.61569290467361659</v>
+        <v>0.78302347585209287</v>
       </c>
       <c r="M6" s="0">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="V6" s="0">
-        <v>0.65719078377543216</v>
+        <v>0.87037935590009974</v>
       </c>
       <c r="W6" s="0">
         <v>0</v>
@@ -1379,16 +1379,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="0">
-        <v>0.5317629218184492</v>
+        <v>0.71038930686333635</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>0.52375727985105525</v>
+        <v>0.81946466074977531</v>
       </c>
       <c r="I7" s="0">
-        <v>0.80594965363426174</v>
+        <v>0.86443892114094822</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S7" s="0">
-        <v>0.6250467347767823</v>
+        <v>0.93225108114264299</v>
       </c>
       <c r="T7" s="0">
         <v>0</v>
@@ -1797,13 +1797,13 @@
         <v>0.86443892114094822</v>
       </c>
       <c r="H9" s="0">
-        <v>0.55577164060480511</v>
+        <v>0.71901235109475148</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>0.89438743777262886</v>
+        <v>0.96557468939225699</v>
       </c>
       <c r="K9" s="0">
         <v>0.83263079616127578</v>
@@ -1914,7 +1914,7 @@
         <v>0</v>
       </c>
       <c r="AU9" s="0">
-        <v>0.76718508461369272</v>
+        <v>0.98248705987410245</v>
       </c>
       <c r="AV9" s="0">
         <v>0</v>
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="BJ9" s="0">
-        <v>0.77513757518300763</v>
+        <v>0.89472824180426791</v>
       </c>
       <c r="BK9" s="0">
         <v>0</v>
@@ -2012,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>0.56598750960852962</v>
+        <v>0.87042507387938794</v>
       </c>
       <c r="L10" s="0">
         <v>0.80697187391600766</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>0.51948787657014728</v>
+        <v>0.83263079616127578</v>
       </c>
       <c r="J11" s="0">
         <v>0.87042507387938794</v>
@@ -2421,10 +2421,10 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>0.77103056290981253</v>
+        <v>0.80697187391600766</v>
       </c>
       <c r="K12" s="0">
-        <v>0.68677255585008279</v>
+        <v>0.86609611653811935</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
@@ -2630,10 +2630,10 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>0.51588944141126492</v>
+        <v>0.79200246376187411</v>
       </c>
       <c r="L13" s="0">
-        <v>0.63807100790769111</v>
+        <v>0.9526924231815026</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
@@ -3048,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>0.55170501704221531</v>
+        <v>0.78144317153125742</v>
       </c>
       <c r="N15" s="0">
         <v>0</v>
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>0.58483367833428912</v>
+        <v>0.85747353687954586</v>
       </c>
       <c r="O16" s="0">
-        <v>0.51010103144113517</v>
+        <v>0.59555747477194299</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>0.66949142795065186</v>
+        <v>0.89574972586429347</v>
       </c>
       <c r="R16" s="0">
-        <v>0.59973697542904003</v>
+        <v>0.97208133778272088</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="S17" s="0">
-        <v>0.70265666904984181</v>
+        <v>0.97526907281368191</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="AR17" s="0">
-        <v>0.5120768694195923</v>
+        <v>0.64632374459462416</v>
       </c>
       <c r="AS17" s="0">
         <v>0</v>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>0.57964730991961844</v>
+        <v>0.85919255395153571</v>
       </c>
       <c r="T18" s="0">
         <v>0</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="AY19" s="0">
-        <v>0.7710080505107143</v>
+        <v>0.85187171914823323</v>
       </c>
       <c r="AZ19" s="0">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="BL19" s="0">
-        <v>0.5102833972750711</v>
+        <v>0.68084193241752611</v>
       </c>
       <c r="BM19" s="0">
         <v>0</v>
       </c>
       <c r="BN19" s="0">
-        <v>0.6039775075823095</v>
+        <v>0.9225524971424911</v>
       </c>
       <c r="BO19" s="0">
         <v>0</v>
@@ -4305,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="0">
-        <v>0.51183252706469262</v>
+        <v>0.62025631776093926</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
@@ -4320,7 +4320,7 @@
         <v>0</v>
       </c>
       <c r="Y21" s="0">
-        <v>0.73819581335616391</v>
+        <v>0.74359093767804074</v>
       </c>
       <c r="Z21" s="0">
         <v>0</v>
@@ -4389,7 +4389,7 @@
         <v>0</v>
       </c>
       <c r="AV21" s="0">
-        <v>0.6091243170956514</v>
+        <v>0.81137796133485074</v>
       </c>
       <c r="AW21" s="0">
         <v>0</v>
@@ -4511,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>0.69848197645548682</v>
+        <v>0.90418432103836888</v>
       </c>
       <c r="U22" s="0">
         <v>0</v>
@@ -4660,7 +4660,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.84448750336814404</v>
+        <v>0.94522086499468427</v>
       </c>
       <c r="B23" s="0">
         <v>0</v>
@@ -4720,10 +4720,10 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>0.75279871090163497</v>
+        <v>0.93852669571943237</v>
       </c>
       <c r="V23" s="0">
-        <v>0.5625210689670409</v>
+        <v>0.96528205170496784</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
@@ -4738,7 +4738,7 @@
         <v>0</v>
       </c>
       <c r="AA23" s="0">
-        <v>0.53997512330488928</v>
+        <v>0.75824957172521268</v>
       </c>
       <c r="AB23" s="0">
         <v>0</v>
@@ -4938,10 +4938,10 @@
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>0.65487598341563835</v>
+        <v>0.7653936091973369</v>
       </c>
       <c r="Z24" s="0">
-        <v>0.70304077836898915</v>
+        <v>0.75014417337233763</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -5084,7 +5084,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="0">
-        <v>0.85388852833149032</v>
+        <v>0.95442261785471605</v>
       </c>
       <c r="F25" s="0">
         <v>0</v>
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>0.52652670133389901</v>
+        <v>0.83404651215735526</v>
       </c>
       <c r="X25" s="0">
         <v>0.7653936091973369</v>
@@ -5147,7 +5147,7 @@
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>0.9431710201296033</v>
+        <v>0.95738115582583172</v>
       </c>
       <c r="AA25" s="0">
         <v>0</v>
@@ -5183,7 +5183,7 @@
         <v>0</v>
       </c>
       <c r="AL25" s="0">
-        <v>0.59307916175424291</v>
+        <v>0.68711067589291819</v>
       </c>
       <c r="AM25" s="0">
         <v>0</v>
@@ -5356,10 +5356,10 @@
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>0.79612384756177845</v>
+        <v>0.83661981092452198</v>
       </c>
       <c r="AB26" s="0">
-        <v>0.80473698851466091</v>
+        <v>0.94090101461972753</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5520,7 +5520,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="0">
-        <v>0.83893573729664239</v>
+        <v>0.94548715537342942</v>
       </c>
       <c r="N27" s="0">
         <v>0</v>
@@ -5568,7 +5568,7 @@
         <v>0.89931910658634073</v>
       </c>
       <c r="AC27" s="0">
-        <v>0.84598597719926494</v>
+        <v>0.95357887240642336</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5607,7 +5607,7 @@
         <v>0</v>
       </c>
       <c r="AP27" s="0">
-        <v>0.56368758818622267</v>
+        <v>0.87985265382232436</v>
       </c>
       <c r="AQ27" s="0">
         <v>0</v>
@@ -5768,7 +5768,7 @@
         <v>0.94090101461972753</v>
       </c>
       <c r="AA28" s="0">
-        <v>0.81367160833771091</v>
+        <v>0.89931910658634073</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="AD28" s="0">
-        <v>0.66606718399953324</v>
+        <v>0.78485260926738398</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -6186,7 +6186,7 @@
         <v>0.78485260926738398</v>
       </c>
       <c r="AC30" s="0">
-        <v>0.90547050728522993</v>
+        <v>0.95126623253291986</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
@@ -6195,7 +6195,7 @@
         <v>0.92269406699968826</v>
       </c>
       <c r="AF30" s="0">
-        <v>0.76947171025626115</v>
+        <v>0.9884422934116287</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6392,16 +6392,16 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>0.80778779083516228</v>
+        <v>0.81944591724818561</v>
       </c>
       <c r="AD31" s="0">
-        <v>0.65487445687089685</v>
+        <v>0.92269406699968826</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>0.82793241005177087</v>
+        <v>0.93500124820146424</v>
       </c>
       <c r="AG31" s="0">
         <v>0.61987601709704421</v>
@@ -6613,7 +6613,7 @@
         <v>0.97167398918086356</v>
       </c>
       <c r="AH32" s="0">
-        <v>0.72979834207981176</v>
+        <v>0.99465682354594442</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6697,7 +6697,7 @@
         <v>0</v>
       </c>
       <c r="BJ32" s="0">
-        <v>0.55056076010729504</v>
+        <v>0.79709448379669945</v>
       </c>
       <c r="BK32" s="0">
         <v>0</v>
@@ -6810,10 +6810,10 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>0.59046702492795688</v>
+        <v>0.61987601709704421</v>
       </c>
       <c r="AF33" s="0">
-        <v>0.81801517972740956</v>
+        <v>0.97167398918086356</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
@@ -6822,7 +6822,7 @@
         <v>0.81286474323849967</v>
       </c>
       <c r="AI33" s="0">
-        <v>0.56515061384904708</v>
+        <v>0.85530095778624116</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>0</v>
       </c>
       <c r="S34" s="0">
-        <v>0.80005402160809214</v>
+        <v>0.88727440162987425</v>
       </c>
       <c r="T34" s="0">
         <v>0</v>
@@ -7022,7 +7022,7 @@
         <v>0.99465682354594442</v>
       </c>
       <c r="AG34" s="0">
-        <v>0.50449207268630558</v>
+        <v>0.81286474323849967</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="AK35" s="0">
-        <v>0.83963047772343069</v>
+        <v>0.89889086986481392</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7377,7 +7377,7 @@
         <v>0</v>
       </c>
       <c r="N36" s="0">
-        <v>0.62262272393858087</v>
+        <v>0.99320492841145569</v>
       </c>
       <c r="O36" s="0">
         <v>0</v>
@@ -7389,7 +7389,7 @@
         <v>0</v>
       </c>
       <c r="R36" s="0">
-        <v>0.79147438892164168</v>
+        <v>0.82963477623975868</v>
       </c>
       <c r="S36" s="0">
         <v>0</v>
@@ -7437,7 +7437,7 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>0.61292572242049737</v>
+        <v>0.74271336637853036</v>
       </c>
       <c r="AI36" s="0">
         <v>0</v>
@@ -7449,7 +7449,7 @@
         <v>0.99399317122636166</v>
       </c>
       <c r="AL36" s="0">
-        <v>0.5995589438350345</v>
+        <v>0.8612791905957311</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7649,16 +7649,16 @@
         <v>0.89889086986481392</v>
       </c>
       <c r="AJ37" s="0">
-        <v>0.85458647329981052</v>
+        <v>0.99399317122636166</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>0.8219890507235259</v>
+        <v>0.92480742591320064</v>
       </c>
       <c r="AM37" s="0">
-        <v>0.57267501471716786</v>
+        <v>0.68687540061622465</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -8019,7 +8019,7 @@
         <v>0</v>
       </c>
       <c r="V39" s="0">
-        <v>0.6552638329346121</v>
+        <v>0.8589793491286063</v>
       </c>
       <c r="W39" s="0">
         <v>0</v>
@@ -8154,7 +8154,7 @@
         <v>0</v>
       </c>
       <c r="BO39" s="0">
-        <v>0.55417449219088599</v>
+        <v>0.6566445256938569</v>
       </c>
       <c r="BP39" s="0">
         <v>0</v>
@@ -8264,7 +8264,7 @@
         <v>0</v>
       </c>
       <c r="AI40" s="0">
-        <v>0.5650550359379094</v>
+        <v>0.90035743162332826</v>
       </c>
       <c r="AJ40" s="0">
         <v>0</v>
@@ -8273,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>0.79339257377083539</v>
+        <v>0.94708048811733803</v>
       </c>
       <c r="AM40" s="0">
         <v>0</v>
@@ -8282,7 +8282,7 @@
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>0.54368436577503587</v>
+        <v>0.86572118188119429</v>
       </c>
       <c r="AP40" s="0">
         <v>0.75417822237520138</v>
@@ -8595,7 +8595,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="0">
-        <v>0.85895554592516055</v>
+        <v>0.97190879989570234</v>
       </c>
       <c r="I42" s="0">
         <v>0</v>
@@ -8691,16 +8691,16 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>0.57518842524872482</v>
+        <v>0.75417822237520138</v>
       </c>
       <c r="AO42" s="0">
-        <v>0.54909514170004114</v>
+        <v>0.95721351066404203</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>0.98335886859310806</v>
+        <v>0.99276506799122255</v>
       </c>
       <c r="AR42" s="0">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="0">
-        <v>0.79988786406696089</v>
+        <v>0.9768276958304839</v>
       </c>
       <c r="F43" s="0">
         <v>0</v>
@@ -8900,7 +8900,7 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>0.67981600206376469</v>
+        <v>0.82368533078484263</v>
       </c>
       <c r="AP43" s="0">
         <v>0.99276506799122255</v>
@@ -8909,7 +8909,7 @@
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>0.76952669723748413</v>
+        <v>0.81271665876381283</v>
       </c>
       <c r="AS43" s="0">
         <v>0.95928661984226493</v>
@@ -9121,7 +9121,7 @@
         <v>0.94401931789353555</v>
       </c>
       <c r="AT44" s="0">
-        <v>0.54762204274730364</v>
+        <v>0.78297793727079024</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9318,10 +9318,10 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>0.85284948649798631</v>
+        <v>0.95928661984226493</v>
       </c>
       <c r="AR45" s="0">
-        <v>0.56657139417416691</v>
+        <v>0.94401931789353555</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
@@ -9330,7 +9330,7 @@
         <v>0.68683341163600031</v>
       </c>
       <c r="AU45" s="0">
-        <v>0.51423827988363091</v>
+        <v>0.51568317073173431</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9530,7 +9530,7 @@
         <v>0.78297793727079024</v>
       </c>
       <c r="AS46" s="0">
-        <v>0.5781944305217066</v>
+        <v>0.68683341163600031</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
@@ -9739,7 +9739,7 @@
         <v>0.51568317073173431</v>
       </c>
       <c r="AT47" s="0">
-        <v>0.53789524463793215</v>
+        <v>0.78115341841879626</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
@@ -9945,7 +9945,7 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>0.66740432300243024</v>
+        <v>0.89866559820890957</v>
       </c>
       <c r="AU48" s="0">
         <v>0</v>
@@ -9957,7 +9957,7 @@
         <v>0</v>
       </c>
       <c r="AX48" s="0">
-        <v>0.70639216356045642</v>
+        <v>0.76809041684249779</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -10136,7 +10136,7 @@
         <v>0</v>
       </c>
       <c r="AO49" s="0">
-        <v>0.95101522944559314</v>
+        <v>0.96965534577586587</v>
       </c>
       <c r="AP49" s="0">
         <v>0</v>
@@ -10154,7 +10154,7 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>0.78377468227659852</v>
+        <v>0.91304738363832594</v>
       </c>
       <c r="AV49" s="0">
         <v>0</v>
@@ -10163,7 +10163,7 @@
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>0.89556572943536428</v>
+        <v>0.99418314058246615</v>
       </c>
       <c r="AY49" s="0">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>0</v>
       </c>
       <c r="AT50" s="0">
-        <v>0.68822450495797449</v>
+        <v>0.93018989336171498</v>
       </c>
       <c r="AU50" s="0">
         <v>0</v>
@@ -10494,7 +10494,7 @@
         <v>0</v>
       </c>
       <c r="W51" s="0">
-        <v>0.61048000949944314</v>
+        <v>0.90780414382042518</v>
       </c>
       <c r="X51" s="0">
         <v>0</v>
@@ -10691,7 +10691,7 @@
         <v>0</v>
       </c>
       <c r="T52" s="0">
-        <v>0.70217645027819908</v>
+        <v>0.81756491493354089</v>
       </c>
       <c r="U52" s="0">
         <v>0</v>
@@ -10781,7 +10781,7 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>0.61121089234034753</v>
+        <v>0.93431181744159209</v>
       </c>
       <c r="AY52" s="0">
         <v>0</v>
@@ -10790,7 +10790,7 @@
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>0.61647964712285597</v>
+        <v>0.88159781063717912</v>
       </c>
       <c r="BB52" s="0">
         <v>0</v>
@@ -10999,7 +10999,7 @@
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>0.54559078488069535</v>
+        <v>0.82972068901905227</v>
       </c>
       <c r="BC53" s="0">
         <v>0</v>
@@ -11211,7 +11211,7 @@
         <v>0</v>
       </c>
       <c r="BD54" s="0">
-        <v>0.66387382058168831</v>
+        <v>0.89592698510498625</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11223,7 +11223,7 @@
         <v>0</v>
       </c>
       <c r="BH54" s="0">
-        <v>0.89058337697839862</v>
+        <v>0.89513294374160113</v>
       </c>
       <c r="BI54" s="0">
         <v>0</v>
@@ -11321,7 +11321,7 @@
         <v>0</v>
       </c>
       <c r="X55" s="0">
-        <v>0.57243368114346871</v>
+        <v>0.98405898444714512</v>
       </c>
       <c r="Y55" s="0">
         <v>0</v>
@@ -11614,7 +11614,7 @@
         <v>0</v>
       </c>
       <c r="BA56" s="0">
-        <v>0.55476212768233668</v>
+        <v>0.66288082015716721</v>
       </c>
       <c r="BB56" s="0">
         <v>0.89592698510498625</v>
@@ -11629,7 +11629,7 @@
         <v>0.86880039755450045</v>
       </c>
       <c r="BF56" s="0">
-        <v>0.67340132321080004</v>
+        <v>0.79954483735175663</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11730,7 +11730,7 @@
         <v>0</v>
       </c>
       <c r="W57" s="0">
-        <v>0.50237520010926484</v>
+        <v>0.52668978794064447</v>
       </c>
       <c r="X57" s="0">
         <v>0</v>
@@ -11772,7 +11772,7 @@
         <v>0</v>
       </c>
       <c r="AK57" s="0">
-        <v>0.59585368226352087</v>
+        <v>0.79930414502999136</v>
       </c>
       <c r="AL57" s="0">
         <v>0</v>
@@ -11826,10 +11826,10 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>0.77797140779516005</v>
+        <v>0.91134483413096423</v>
       </c>
       <c r="BD57" s="0">
-        <v>0.60379980380686726</v>
+        <v>0.86880039755450045</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
@@ -11841,7 +11841,7 @@
         <v>0</v>
       </c>
       <c r="BH57" s="0">
-        <v>0.81127719591669967</v>
+        <v>0.89596694726789661</v>
       </c>
       <c r="BI57" s="0">
         <v>0</v>
@@ -12047,7 +12047,7 @@
         <v>0.74288961481423244</v>
       </c>
       <c r="BH58" s="0">
-        <v>0.55770018143812539</v>
+        <v>0.93994268546399051</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
@@ -12247,7 +12247,7 @@
         <v>0</v>
       </c>
       <c r="BF59" s="0">
-        <v>0.67452941229414931</v>
+        <v>0.74288961481423244</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
@@ -12315,7 +12315,7 @@
         <v>0</v>
       </c>
       <c r="L60" s="0">
-        <v>0.55535269370952134</v>
+        <v>0.963239003841451</v>
       </c>
       <c r="M60" s="0">
         <v>0</v>
@@ -12456,7 +12456,7 @@
         <v>0.93994268546399051</v>
       </c>
       <c r="BG60" s="0">
-        <v>0.58149225707438534</v>
+        <v>0.90405466975615745</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
@@ -12662,7 +12662,7 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>0.54636698527556693</v>
+        <v>0.73437299140670798</v>
       </c>
       <c r="BH61" s="0">
         <v>0</v>
@@ -12671,10 +12671,10 @@
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>0.91812403611741678</v>
+        <v>0.96130764084984166</v>
       </c>
       <c r="BK61" s="0">
-        <v>0.55549843642419172</v>
+        <v>0.98076874045232953</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12736,7 +12736,7 @@
         <v>0</v>
       </c>
       <c r="O62" s="0">
-        <v>0.6883655268406943</v>
+        <v>0.97916980307927104</v>
       </c>
       <c r="P62" s="0">
         <v>0</v>
@@ -13002,7 +13002,7 @@
         <v>0</v>
       </c>
       <c r="AI63" s="0">
-        <v>0.74325481494743406</v>
+        <v>0.75660942492567385</v>
       </c>
       <c r="AJ63" s="0">
         <v>0</v>
@@ -13092,7 +13092,7 @@
         <v>0</v>
       </c>
       <c r="BM63" s="0">
-        <v>0.61647297062226081</v>
+        <v>0.65237221457811589</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13298,7 +13298,7 @@
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>0.62297347382945212</v>
+        <v>0.80792664835156192</v>
       </c>
       <c r="BN64" s="0">
         <v>0.82733943233518925</v>
@@ -13468,7 +13468,7 @@
         <v>0</v>
       </c>
       <c r="BA65" s="0">
-        <v>0.61053418427824835</v>
+        <v>0.67019341415239975</v>
       </c>
       <c r="BB65" s="0">
         <v>0</v>
@@ -13507,7 +13507,7 @@
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>0.5165620652652323</v>
+        <v>0.6652554128113336</v>
       </c>
       <c r="BO65" s="0">
         <v>0</v>
@@ -13707,7 +13707,7 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>0.77754918650839677</v>
+        <v>0.82733943233518925</v>
       </c>
       <c r="BM66" s="0">
         <v>0.6652554128113336</v>
@@ -13719,12 +13719,12 @@
         <v>0</v>
       </c>
       <c r="BP66" s="0">
-        <v>0.6382917452357828</v>
+        <v>0.78698640388705887</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0.62593328361676348</v>
+        <v>0.95558041402866434</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13930,10 +13930,10 @@
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>0.55122326985666237</v>
+        <v>0.70650295266369656</v>
       </c>
       <c r="B68" s="0">
-        <v>0.70773116352293353</v>
+        <v>0.95586246769296102</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
@@ -14128,7 +14128,7 @@
         <v>0.78698640388705887</v>
       </c>
       <c r="BO68" s="0">
-        <v>0.68826320194686397</v>
+        <v>0.91006058438711579</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>
